--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-26580" yWindow="4520" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="71740" yWindow="3760" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="用款申请单" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
-  <si>
-    <t>公司负责人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务负责人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>部门负责人</t>
   </si>
@@ -105,6 +97,33 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>财务会计</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuai'ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务负责人</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总裁</t>
+    <rPh sb="0" eb="1">
+      <t>zong'cai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -178,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -238,69 +257,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:M8"/>
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -601,248 +659,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="18"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:M12"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="N3:N13"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="B5:I5"/>
@@ -850,16 +936,8 @@
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.38" top="0.2" bottom="0.15" header="0.23" footer="0.15"/>

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="71740" yWindow="3760" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="69440" yWindow="3760" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="用款申请单" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>部门负责人</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>本次应付金额</t>
-  </si>
-  <si>
-    <t>第一联 记账</t>
   </si>
   <si>
     <t>收款单位</t>
@@ -84,6 +81,7 @@
         <b/>
         <sz val="20"/>
         <rFont val="仿宋"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">            </t>
@@ -93,6 +91,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="仿宋"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -145,11 +144,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,16 +158,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -174,18 +178,21 @@
       <u val="double"/>
       <sz val="20"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -303,6 +310,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,15 +328,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -332,33 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +647,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -659,261 +666,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="8"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -928,16 +943,6 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.38" top="0.2" bottom="0.15" header="0.23" footer="0.15"/>

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -310,6 +310,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,21 +346,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,21 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -666,269 +666,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="19"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="19"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="19"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="19"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="19"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="19"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="19"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -943,6 +933,16 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.38" top="0.2" bottom="0.15" header="0.23" footer="0.15"/>

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="69440" yWindow="3760" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="10240" yWindow="3760" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="用款申请单" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">用款申请单!$A$1:$M$13</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -310,19 +313,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,39 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,10 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H11" sqref="H11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -666,259 +672,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="5"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="5"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="6" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -933,19 +949,10 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.38" top="0.2" bottom="0.15" header="0.23" footer="0.15"/>
-  <pageSetup paperSize="512" orientation="landscape" verticalDpi="0"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.38" top="0.2" bottom="0.15000000000000002" header="0.23000000000000004" footer="0.15000000000000002"/>
+  <pageSetup paperSize="28" scale="93" orientation="landscape" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -207,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -231,9 +231,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -253,9 +275,27 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -269,26 +309,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -304,58 +329,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -364,11 +374,26 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +678,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:M11"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -672,256 +697,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="19"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="19"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="4" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="19"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="19"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="19"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="19"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="19"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="3760" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="7620" yWindow="3660" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="用款申请单" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>出款单位</t>
   </si>
   <si>
-    <t xml:space="preserve">  ¥</t>
-  </si>
-  <si>
     <t>（大写）</t>
   </si>
   <si>
@@ -70,10 +67,6 @@
   </si>
   <si>
     <t>收款单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   用款部门：                                                                   年    月    日   </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,6 +118,14 @@
     <rPh sb="0" eb="1">
       <t>zong'cai</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   用款部门：                                                                   年    月    日   </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ¥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -304,7 +305,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -313,7 +325,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -335,8 +349,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,6 +374,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -362,8 +394,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
@@ -376,24 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +692,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N3" sqref="N3:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -697,256 +711,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="22"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="14"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="14"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="3760" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="7620" yWindow="3660" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="用款申请单" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>出款单位</t>
   </si>
   <si>
-    <t xml:space="preserve">  ¥</t>
-  </si>
-  <si>
     <t>（大写）</t>
   </si>
   <si>
@@ -70,10 +67,6 @@
   </si>
   <si>
     <t>收款单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   用款部门：                                                                   年    月    日   </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,6 +118,14 @@
     <rPh sb="0" eb="1">
       <t>zong'cai</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   用款部门：                                                                   年    月    日   </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ¥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,21 +232,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -259,20 +245,75 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -283,9 +324,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -304,67 +343,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +692,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:M11"/>
+      <selection activeCell="N3" sqref="N3:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -672,8 +711,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
+      <c r="A1" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -686,91 +725,91 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="19"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="19"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="19"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -783,145 +822,145 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="19"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="19"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="19"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="19"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="19"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="19"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -208,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -272,55 +272,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -349,36 +300,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -397,17 +342,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +643,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N13"/>
+      <selection activeCell="K2" sqref="K2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -711,271 +662,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="20"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="20"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="20"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="20"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="20"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="20"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="20"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B9:G9"/>
@@ -988,6 +928,17 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="3660" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1120" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="用款申请单" sheetId="1" r:id="rId1"/>
@@ -300,16 +300,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,48 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +643,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+      <selection activeCell="B8" sqref="B8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -662,259 +662,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="4"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="4"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="A9:A13"/>
@@ -929,16 +939,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -306,6 +306,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,15 +336,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,18 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +643,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:M8"/>
+      <selection activeCell="H13" sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -662,21 +662,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -691,240 +691,230 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="20"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="20"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="20"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="20"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="20"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="20"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="20"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="20"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="20"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="A9:A13"/>
@@ -939,10 +929,20 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.38" top="0.2" bottom="0.15000000000000002" header="0.23000000000000004" footer="0.15000000000000002"/>
-  <pageSetup paperSize="28" scale="93" orientation="landscape" verticalDpi="0"/>
+  <pageSetup paperSize="30" scale="53" orientation="landscape" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -306,16 +306,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -323,42 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +643,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="A1:M13"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -662,21 +662,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -691,230 +691,240 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="6"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="6"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="6"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="7" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="A9:A13"/>
@@ -929,20 +939,10 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.38" top="0.2" bottom="0.15000000000000002" header="0.23000000000000004" footer="0.15000000000000002"/>
-  <pageSetup paperSize="30" scale="53" orientation="landscape" verticalDpi="0"/>
+  <pageSetup paperSize="28" scale="93" orientation="landscape" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xlsx-templates/money.xlsx
+++ b/xlsx-templates/money.xlsx
@@ -306,6 +306,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,15 +336,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,18 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +643,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="J5" sqref="J5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -662,21 +662,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -691,240 +691,230 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="20"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="20"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="20"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="20"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="20"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="A9:A13"/>
@@ -939,6 +929,16 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
